--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_VinaGPS.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_VinaGPS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -235,6 +235,39 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>125.212.203.119,21083</t>
+  </si>
+  <si>
+    <t>Xác định lỗi</t>
+  </si>
+  <si>
+    <t>Thiết bị không đăng nhập được</t>
+  </si>
+  <si>
+    <t>Reset lại mk, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>NCFW,MCH</t>
+  </si>
+  <si>
+    <t>V3.3.21.5_R22090903</t>
+  </si>
+  <si>
+    <t>Thiết bị từng gửi về gotreck</t>
+  </si>
+  <si>
+    <t>Thiết bị sai cấu hình</t>
+  </si>
+  <si>
+    <t>Nạp lại cấu hình</t>
   </si>
 </sst>
 </file>
@@ -637,6 +670,30 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,32 +709,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1003,9 +1036,9 @@
     <col min="7" max="7" width="17" style="10" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="10" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="53" style="10" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="50.5703125" style="20" customWidth="1"/>
     <col min="13" max="13" width="58" style="10" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="10" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="10" customWidth="1"/>
@@ -1021,46 +1054,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -1077,7 +1110,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="41"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -1088,57 +1121,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="K4" s="67"/>
+      <c r="L4" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1163,22 +1196,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="34" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="74"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="80"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1188,7 +1221,9 @@
       <c r="B6" s="58">
         <v>45034</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="58">
+        <v>45034</v>
+      </c>
       <c r="D6" s="64" t="s">
         <v>62</v>
       </c>
@@ -1199,20 +1234,38 @@
       <c r="G6" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="H6" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>74</v>
+      </c>
       <c r="S6" s="64"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1227,7 +1280,9 @@
       <c r="B7" s="58">
         <v>45034</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="58">
+        <v>45034</v>
+      </c>
       <c r="D7" s="64" t="s">
         <v>62</v>
       </c>
@@ -1239,19 +1294,35 @@
         <v>67</v>
       </c>
       <c r="H7" s="46"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
+      <c r="I7" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
+      <c r="L7" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>78</v>
+      </c>
       <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="63"/>
+      <c r="O7" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="63" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="64"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1269,7 +1340,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="J8" s="61"/>
       <c r="K8" s="61"/>
       <c r="L8" s="61"/>
       <c r="M8" s="62"/>
@@ -1280,7 +1351,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="64"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1370,7 @@
       <c r="H9" s="46"/>
       <c r="I9" s="59"/>
       <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="61"/>
       <c r="M9" s="62"/>
       <c r="N9" s="60"/>
@@ -1309,7 +1380,7 @@
       <c r="R9" s="63"/>
       <c r="S9" s="64"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1327,8 +1398,8 @@
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
       <c r="N10" s="60"/>
@@ -1338,7 +1409,7 @@
       <c r="R10" s="63"/>
       <c r="S10" s="64"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1356,7 +1427,7 @@
       <c r="G11" s="48"/>
       <c r="H11" s="56"/>
       <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
@@ -1367,7 +1438,7 @@
       <c r="R11" s="53"/>
       <c r="S11" s="55"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1385,7 +1456,7 @@
       <c r="G12" s="48"/>
       <c r="H12" s="56"/>
       <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52"/>
@@ -1396,7 +1467,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1417,7 +1488,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="49"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="51"/>
       <c r="L13" s="51"/>
       <c r="M13" s="33"/>
       <c r="N13" s="1"/>
@@ -1427,7 +1498,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1446,7 +1517,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="49"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="33"/>
       <c r="N14" s="1"/>
@@ -1456,7 +1527,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1475,7 +1546,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="49"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="51"/>
       <c r="M15" s="33"/>
       <c r="N15" s="1"/>
@@ -1485,7 +1556,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1504,7 +1575,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="49"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="51"/>
       <c r="M16" s="33"/>
       <c r="N16" s="1"/>
@@ -1514,7 +1585,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1532,8 +1603,8 @@
       <c r="G17" s="31"/>
       <c r="H17" s="1"/>
       <c r="I17" s="49"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="51"/>
       <c r="L17" s="51"/>
       <c r="M17" s="33"/>
       <c r="N17" s="1"/>
@@ -1560,7 +1631,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="49"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="51"/>
       <c r="M18" s="33"/>
       <c r="N18" s="1"/>
@@ -1586,8 +1657,8 @@
       <c r="G19" s="31"/>
       <c r="H19" s="1"/>
       <c r="I19" s="49"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="52"/>
       <c r="N19" s="50"/>
@@ -1617,8 +1688,8 @@
       <c r="G20" s="31"/>
       <c r="H20" s="1"/>
       <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="52"/>
       <c r="N20" s="50"/>
@@ -1648,8 +1719,8 @@
       <c r="G21" s="31"/>
       <c r="H21" s="1"/>
       <c r="I21" s="49"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
       <c r="N21" s="1"/>
@@ -1681,7 +1752,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="43"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
       <c r="N22" s="1"/>
@@ -1709,8 +1780,8 @@
       <c r="G23" s="31"/>
       <c r="H23" s="3"/>
       <c r="I23" s="43"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
       <c r="N23" s="1"/>
@@ -1736,8 +1807,8 @@
       <c r="G24" s="31"/>
       <c r="H24" s="3"/>
       <c r="I24" s="43"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
       <c r="N24" s="1"/>
@@ -1763,8 +1834,8 @@
       <c r="G25" s="31"/>
       <c r="H25" s="3"/>
       <c r="I25" s="43"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="1"/>
@@ -1794,8 +1865,8 @@
       <c r="G26" s="31"/>
       <c r="H26" s="3"/>
       <c r="I26" s="43"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
       <c r="N26" s="1"/>
@@ -1826,8 +1897,8 @@
       <c r="G27" s="31"/>
       <c r="H27" s="3"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
       <c r="N27" s="1"/>
@@ -1859,7 +1930,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="43"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="33"/>
       <c r="M28" s="33"/>
       <c r="N28" s="1"/>
@@ -1891,7 +1962,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="43"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33"/>
       <c r="N29" s="1"/>
@@ -1923,7 +1994,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="43"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
       <c r="N30" s="1"/>
@@ -1955,7 +2026,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="43"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33"/>
       <c r="N31" s="1"/>
@@ -1984,7 +2055,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="43"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="33"/>
       <c r="M32" s="33"/>
       <c r="N32" s="1"/>
@@ -1999,7 +2070,7 @@
       </c>
       <c r="V32" s="3">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="12"/>
     </row>
@@ -2016,7 +2087,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="43"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
       <c r="N33" s="1"/>
@@ -2048,7 +2119,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="43"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
       <c r="N34" s="1"/>
@@ -2080,7 +2151,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="43"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
       <c r="N35" s="1"/>
@@ -2109,7 +2180,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="43"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
       <c r="N36" s="1"/>
@@ -2138,7 +2209,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="43"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
       <c r="N37" s="1"/>
@@ -2167,7 +2238,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="43"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
       <c r="N38" s="1"/>
@@ -2194,7 +2265,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="43"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
       <c r="N39" s="1"/>
@@ -2221,7 +2292,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="43"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="33"/>
       <c r="M40" s="33"/>
       <c r="N40" s="1"/>
@@ -2253,7 +2324,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="43"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="1"/>
@@ -2285,7 +2356,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="43"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
       <c r="N42" s="1"/>
@@ -2312,7 +2383,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="43"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33"/>
       <c r="N43" s="1"/>
@@ -2339,7 +2410,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="43"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
       <c r="N44" s="1"/>
@@ -2375,7 +2446,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="43"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="33"/>
       <c r="N45" s="1"/>
@@ -2414,7 +2485,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="43"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="33"/>
       <c r="M46" s="33"/>
       <c r="N46" s="1"/>
@@ -2453,7 +2524,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="43"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="33"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
       <c r="N47" s="1"/>
@@ -2492,7 +2563,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="43"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33"/>
       <c r="N48" s="1"/>
@@ -2501,9 +2572,9 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="2"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="28">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+      <c r="T48" s="28" t="e">
+        <f>COUNTIF(#REF!,"*GSM*")</f>
+        <v>#REF!</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>57</v>
@@ -2534,7 +2605,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="43"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33"/>
       <c r="N49" s="1"/>
@@ -2562,7 +2633,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="43"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33"/>
       <c r="N50" s="1"/>
@@ -2590,7 +2661,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="43"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="33"/>
       <c r="L51" s="33"/>
       <c r="M51" s="33"/>
       <c r="N51" s="1"/>
@@ -2618,7 +2689,7 @@
       <c r="H52" s="26"/>
       <c r="I52" s="43"/>
       <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="K52" s="33"/>
       <c r="L52" s="33"/>
       <c r="M52" s="33"/>
       <c r="N52" s="1"/>
@@ -2646,7 +2717,7 @@
       <c r="H53" s="26"/>
       <c r="I53" s="43"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="33"/>
       <c r="N53" s="1"/>
@@ -2674,7 +2745,7 @@
       <c r="H54" s="26"/>
       <c r="I54" s="43"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="33"/>
       <c r="N54" s="1"/>
@@ -2702,7 +2773,7 @@
       <c r="H55" s="26"/>
       <c r="I55" s="43"/>
       <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
+      <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="33"/>
       <c r="N55" s="1"/>
@@ -2730,7 +2801,7 @@
       <c r="H56" s="26"/>
       <c r="I56" s="43"/>
       <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="33"/>
       <c r="N56" s="1"/>
@@ -2756,7 +2827,7 @@
       <c r="H57" s="26"/>
       <c r="I57" s="43"/>
       <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
+      <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="33"/>
       <c r="N57" s="1"/>
@@ -2782,7 +2853,7 @@
       <c r="H58" s="26"/>
       <c r="I58" s="43"/>
       <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="33"/>
       <c r="M58" s="33"/>
       <c r="N58" s="1"/>
@@ -2805,7 +2876,7 @@
       <c r="H59" s="26"/>
       <c r="I59" s="43"/>
       <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
+      <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33"/>
       <c r="N59" s="1"/>
@@ -2828,7 +2899,7 @@
       <c r="H60" s="26"/>
       <c r="I60" s="43"/>
       <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
+      <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33"/>
       <c r="N60" s="1"/>
@@ -2851,10 +2922,10 @@
       <c r="H61" s="26"/>
       <c r="I61" s="44"/>
       <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="33" t="s">
+      <c r="K61" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L61" s="33"/>
       <c r="M61" s="26"/>
       <c r="N61" s="26"/>
       <c r="O61" s="26"/>
@@ -2876,10 +2947,10 @@
       <c r="H62" s="26"/>
       <c r="I62" s="44"/>
       <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="33" t="s">
+      <c r="K62" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L62" s="33"/>
       <c r="M62" s="26"/>
       <c r="N62" s="26"/>
       <c r="O62" s="26"/>
@@ -2901,10 +2972,10 @@
       <c r="H63" s="26"/>
       <c r="I63" s="44"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="33" t="s">
+      <c r="K63" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L63" s="33"/>
       <c r="M63" s="26"/>
       <c r="N63" s="26"/>
       <c r="O63" s="26"/>
@@ -2926,10 +2997,10 @@
       <c r="H64" s="26"/>
       <c r="I64" s="44"/>
       <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="33" t="s">
+      <c r="K64" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L64" s="33"/>
       <c r="M64" s="26"/>
       <c r="N64" s="26"/>
       <c r="O64" s="26"/>
@@ -2951,10 +3022,10 @@
       <c r="H65" s="26"/>
       <c r="I65" s="44"/>
       <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="33" t="s">
+      <c r="K65" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="L65" s="33"/>
       <c r="M65" s="26"/>
       <c r="N65" s="26"/>
       <c r="O65" s="26"/>
@@ -3215,17 +3286,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
@@ -3233,6 +3293,17 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3276,41 +3347,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -3343,57 +3414,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3418,22 +3489,22 @@
       <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="81"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="74"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="80"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3459,7 +3530,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3490,7 +3561,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3519,7 +3590,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3548,7 +3619,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3577,7 +3648,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3606,7 +3677,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3635,7 +3706,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3666,7 +3737,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3695,7 +3766,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3724,7 +3795,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3753,7 +3824,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4984,13 +5055,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5002,6 +5066,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
